--- a/biology/Botanique/Eriophyllum/Eriophyllum.xlsx
+++ b/biology/Botanique/Eriophyllum/Eriophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriophyllum est un genre de plante à fleurs de la famille des Asteraceae, communément connu sous le nom de woolly sunflower (tournesol cotonneux). Ce sont des plantes herbacées annuelles ou pérennes originaire de l'Ouest de l'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Eriophyllum ambiguum (Gray) Gray
